--- a/09_Literature_Review/00_Literature Review_Blockchain_Implications for Business Models.xlsx
+++ b/09_Literature_Review/00_Literature Review_Blockchain_Implications for Business Models.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dennis/Library/Mobile Documents/3L68KQB4HG~com~readdle~CommonDocuments/Documents/01_Uni/5. Semester/01_Masterarbeit/05_Literature_Review_Materialien/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dennis/Library/Mobile Documents/3L68KQB4HG~com~readdle~CommonDocuments/Documents/01_Uni/5. Semester/01_Masterarbeit/03_R_Project_MA/09_Literature_Review/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F5F859-DF8C-4149-B107-86837657F8A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FAF6D2-001A-A44A-932D-685F615F065F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="I. Design" sheetId="31" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <definedName name="_CTVP001e3fbd552b1744a87b01b3f5520e4c8db" localSheetId="0">'I. Design'!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'III. Databases'!$B$8:$H$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'IV. Initial Search'!$B$5:$H$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'V. Forward and Backward'!$B$5:$K$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'V. Forward and Backward'!$B$5:$I$6</definedName>
     <definedName name="citation" localSheetId="3">'IV. Initial Search'!#REF!</definedName>
     <definedName name="citation" localSheetId="4">'V. Forward and Backward'!#REF!</definedName>
     <definedName name="Result_10" localSheetId="3">'IV. Initial Search'!#REF!</definedName>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="128">
   <si>
     <t>2. Keywords</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Authors</t>
   </si>
   <si>
-    <t>Method</t>
-  </si>
-  <si>
     <t>Titel</t>
   </si>
   <si>
@@ -218,9 +215,6 @@
   </si>
   <si>
     <t>Document Type including Conference Paper</t>
-  </si>
-  <si>
-    <t>(If applicable) Hypothesis / Props</t>
   </si>
   <si>
     <t>Title of Paper</t>
@@ -1642,7 +1636,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="238">
+  <cellXfs count="236">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2019,12 +2013,6 @@
     <xf numFmtId="0" fontId="21" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2037,43 +2025,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2108,23 +2063,108 @@
     <xf numFmtId="0" fontId="20" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2135,51 +2175,6 @@
     <xf numFmtId="0" fontId="24" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2189,9 +2184,6 @@
     <xf numFmtId="0" fontId="23" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2204,26 +2196,22 @@
     <xf numFmtId="0" fontId="29" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="57">
+  <dxfs count="55">
     <dxf>
       <fill>
         <patternFill>
@@ -2369,82 +2357,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3862,78 +3774,76 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle511" displayName="Tabelle511" ref="B6:C9" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55" tableBorderDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle511" displayName="Tabelle511" ref="B6:C9" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53" tableBorderDxfId="52">
   <autoFilter ref="B6:C9" xr:uid="{00000000-0009-0000-0100-00000A000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Variable" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Keywords" dataDxfId="52"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Variable" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Keywords" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle16" displayName="Tabelle16" ref="E6:F14" totalsRowShown="0" headerRowDxfId="51" dataDxfId="49" headerRowBorderDxfId="50" tableBorderDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle16" displayName="Tabelle16" ref="E6:F14" totalsRowShown="0" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="46">
   <autoFilter ref="E6:F14" xr:uid="{00000000-0009-0000-0100-000010000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Variable" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Keywords" dataDxfId="46"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Variable" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Keywords" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle162" displayName="Tabelle162" ref="H6:I14" totalsRowShown="0" headerRowDxfId="45" dataDxfId="43" headerRowBorderDxfId="44" tableBorderDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle162" displayName="Tabelle162" ref="H6:I14" totalsRowShown="0" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42" tableBorderDxfId="40">
   <autoFilter ref="H6:I14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Variable" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Keywords" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Variable" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Keywords" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabelle1943" displayName="Tabelle1943" ref="B5:J6" totalsRowShown="0" headerRowDxfId="39" dataDxfId="37" headerRowBorderDxfId="38" tableBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabelle1943" displayName="Tabelle1943" ref="B5:J6" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34">
   <autoFilter ref="B5:J6" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="9">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="File Name" dataDxfId="35"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Titel" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Year" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Relevance" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Authors" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Journal / Publisher" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Ranking (SJR + Quartile)" dataDxfId="29"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="Abstract" dataDxfId="28"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="Paper" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="File Name" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Titel" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Year" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Relevance" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Authors" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Journal / Publisher" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Ranking (SJR + Quartile)" dataDxfId="27"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="Abstract" dataDxfId="26"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="Paper" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabelle14512" displayName="Tabelle14512" ref="B5:L6" insertRow="1" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23">
-  <autoFilter ref="B5:L6" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:J48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabelle14512" displayName="Tabelle14512" ref="B5:J6" insertRow="1" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21">
+  <autoFilter ref="B5:J6" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:H48">
     <sortCondition ref="C5:C48"/>
   </sortState>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="File Name" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Title" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Year" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Relevance" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Authors" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Journal / Publisher" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Ranking (SJR + Quartile)" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="(If applicable) Hypothesis / Props" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="Method" dataDxfId="14"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="File Name" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Title" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Year" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Relevance" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Authors" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Journal / Publisher" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Ranking (SJR + Quartile)" dataDxfId="14"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="Abstract" dataDxfId="13"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0400-00000D000000}" name="Paper" dataDxfId="12"/>
   </tableColumns>
@@ -4261,11 +4171,11 @@
       <c r="A1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="23" x14ac:dyDescent="0.25">
-      <c r="B2" s="176" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
+      <c r="B2" s="196" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
     </row>
     <row r="4" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="B4" s="22"/>
@@ -4275,102 +4185,102 @@
         <v>1</v>
       </c>
       <c r="C5" s="111" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D5" s="112" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="177" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="178"/>
+        <v>37</v>
+      </c>
+      <c r="E5" s="197" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="198"/>
     </row>
     <row r="6" spans="1:6" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="113" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="115" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="116" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="172" t="s">
-        <v>17</v>
+        <v>45</v>
+      </c>
+      <c r="E6" s="170" t="s">
+        <v>16</v>
       </c>
       <c r="F6" s="45" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="145" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="146" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="147" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="148" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="117" t="s">
-        <v>44</v>
-      </c>
       <c r="D8" s="118" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8" s="66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="145" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="146" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="146" t="s">
-        <v>36</v>
-      </c>
       <c r="D9" s="147" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="173" t="s">
-        <v>19</v>
+        <v>48</v>
+      </c>
+      <c r="E9" s="171" t="s">
+        <v>18</v>
       </c>
       <c r="F9" s="45"/>
     </row>
     <row r="10" spans="1:6" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="114" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="221" t="s">
-        <v>101</v>
+        <v>36</v>
+      </c>
+      <c r="C10" s="188" t="s">
+        <v>99</v>
       </c>
       <c r="D10" s="68" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E10" s="66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="149" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="222" t="s">
-        <v>104</v>
+        <v>36</v>
+      </c>
+      <c r="C11" s="189" t="s">
+        <v>102</v>
       </c>
       <c r="D11" s="150" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E11" s="151" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4428,7 +4338,7 @@
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4437,111 +4347,111 @@
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="33"/>
-      <c r="B5" s="201" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="201"/>
+      <c r="B5" s="219" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="219"/>
       <c r="D5" s="18"/>
-      <c r="E5" s="201" t="s">
+      <c r="E5" s="219" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="219"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="219" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="201"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="201" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="201"/>
+      <c r="I5" s="219"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="34"/>
-      <c r="B6" s="191" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="191" t="s">
-        <v>34</v>
+      <c r="B6" s="178" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="178" t="s">
+        <v>33</v>
       </c>
       <c r="D6" s="41"/>
-      <c r="E6" s="196" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="196" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="196" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="196" t="s">
-        <v>34</v>
+      <c r="E6" s="183" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="183" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="183" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="183" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="11" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="35"/>
-      <c r="B7" s="192" t="s">
-        <v>58</v>
+      <c r="B7" s="179" t="s">
+        <v>56</v>
       </c>
       <c r="C7" s="121" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="193"/>
-      <c r="E7" s="197" t="s">
-        <v>73</v>
+        <v>59</v>
+      </c>
+      <c r="D7" s="180"/>
+      <c r="E7" s="184" t="s">
+        <v>71</v>
       </c>
       <c r="F7" s="121" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G7" s="127"/>
-      <c r="H7" s="197" t="s">
-        <v>72</v>
+      <c r="H7" s="184" t="s">
+        <v>70</v>
       </c>
       <c r="I7" s="121" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="7" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="36"/>
-      <c r="B8" s="189" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="190" t="s">
-        <v>63</v>
+      <c r="B8" s="176" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="177" t="s">
+        <v>61</v>
       </c>
       <c r="D8" s="119"/>
-      <c r="E8" s="194" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="195" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="198"/>
-      <c r="H8" s="200" t="s">
-        <v>76</v>
+      <c r="E8" s="181" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="182" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="185"/>
+      <c r="H8" s="187" t="s">
+        <v>74</v>
       </c>
       <c r="I8" s="128" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J8" s="42"/>
     </row>
     <row r="9" spans="1:10" s="6" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="35"/>
-      <c r="B9" s="174" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="175" t="s">
-        <v>84</v>
+      <c r="B9" s="172" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="173" t="s">
+        <v>82</v>
       </c>
       <c r="D9" s="119"/>
       <c r="E9" s="120" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F9" s="124" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G9" s="129"/>
-      <c r="H9" s="199" t="s">
-        <v>78</v>
+      <c r="H9" s="186" t="s">
+        <v>76</v>
       </c>
       <c r="I9" s="124" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.15">
@@ -4553,10 +4463,10 @@
       <c r="F10" s="128"/>
       <c r="G10" s="122"/>
       <c r="H10" s="131" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I10" s="128" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="16" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.15">
@@ -4568,10 +4478,10 @@
       <c r="F11" s="124"/>
       <c r="G11" s="129"/>
       <c r="H11" s="130" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I11" s="124" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.15">
@@ -4583,10 +4493,10 @@
       <c r="F12" s="128"/>
       <c r="G12" s="122"/>
       <c r="H12" s="126" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I12" s="128" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.15">
@@ -4598,25 +4508,25 @@
       <c r="F13" s="121"/>
       <c r="G13" s="129"/>
       <c r="H13" s="133" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I13" s="121" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="23" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="17"/>
-      <c r="B14" s="183"/>
-      <c r="C14" s="184"/>
+      <c r="B14" s="174"/>
+      <c r="C14" s="175"/>
       <c r="D14" s="125"/>
       <c r="E14" s="126"/>
       <c r="F14" s="132"/>
       <c r="G14" s="134"/>
       <c r="H14" s="126" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I14" s="132" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4630,24 +4540,24 @@
     </row>
     <row r="16" spans="1:10" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="17"/>
-      <c r="C16" s="207" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="208"/>
-      <c r="E16" s="208"/>
-      <c r="F16" s="208"/>
-      <c r="G16" s="209"/>
+      <c r="C16" s="223" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="224"/>
+      <c r="E16" s="224"/>
+      <c r="F16" s="224"/>
+      <c r="G16" s="225"/>
       <c r="H16" s="135"/>
     </row>
     <row r="17" spans="1:12" s="23" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="17"/>
-      <c r="C17" s="179" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="180"/>
-      <c r="E17" s="180"/>
-      <c r="F17" s="180"/>
-      <c r="G17" s="182"/>
+      <c r="C17" s="220" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="221"/>
+      <c r="E17" s="221"/>
+      <c r="F17" s="221"/>
+      <c r="G17" s="222"/>
       <c r="H17" s="81"/>
       <c r="I17" s="20"/>
     </row>
@@ -4661,65 +4571,65 @@
     </row>
     <row r="19" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="34"/>
-      <c r="B19" s="185" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" s="185"/>
-      <c r="D19" s="185"/>
-      <c r="E19" s="185"/>
-      <c r="F19" s="185"/>
-      <c r="G19" s="185"/>
-      <c r="H19" s="185"/>
-      <c r="I19" s="185"/>
+      <c r="B19" s="209" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="209"/>
+      <c r="D19" s="209"/>
+      <c r="E19" s="209"/>
+      <c r="F19" s="209"/>
+      <c r="G19" s="209"/>
+      <c r="H19" s="209"/>
+      <c r="I19" s="209"/>
     </row>
     <row r="20" spans="1:12" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="17"/>
-      <c r="B20" s="202" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" s="202"/>
-      <c r="D20" s="202" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="202"/>
-      <c r="F20" s="202" t="s">
-        <v>90</v>
-      </c>
-      <c r="G20" s="202"/>
-      <c r="H20" s="202"/>
-      <c r="I20" s="202"/>
+      <c r="B20" s="208" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="208"/>
+      <c r="D20" s="208" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="208"/>
+      <c r="F20" s="208" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="208"/>
+      <c r="H20" s="208"/>
+      <c r="I20" s="208"/>
     </row>
     <row r="21" spans="1:12" s="15" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="34"/>
-      <c r="B21" s="188" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="187"/>
-      <c r="D21" s="203" t="s">
-        <v>91</v>
-      </c>
-      <c r="E21" s="204"/>
-      <c r="F21" s="217" t="s">
-        <v>97</v>
-      </c>
-      <c r="G21" s="218"/>
-      <c r="H21" s="218"/>
-      <c r="I21" s="218"/>
+      <c r="B21" s="216" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="215"/>
+      <c r="D21" s="210" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="211"/>
+      <c r="F21" s="206" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="207"/>
+      <c r="H21" s="207"/>
+      <c r="I21" s="207"/>
     </row>
     <row r="22" spans="1:12" s="23" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="34"/>
-      <c r="B22" s="186" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" s="187"/>
-      <c r="D22" s="205" t="s">
-        <v>94</v>
-      </c>
-      <c r="E22" s="206"/>
-      <c r="F22" s="218"/>
-      <c r="G22" s="218"/>
-      <c r="H22" s="218"/>
-      <c r="I22" s="218"/>
+      <c r="B22" s="214" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="215"/>
+      <c r="D22" s="212" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="213"/>
+      <c r="F22" s="207"/>
+      <c r="G22" s="207"/>
+      <c r="H22" s="207"/>
+      <c r="I22" s="207"/>
     </row>
     <row r="24" spans="1:12" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="17"/>
@@ -4727,18 +4637,18 @@
     </row>
     <row r="25" spans="1:12" s="23" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="34"/>
-      <c r="B25" s="210" t="s">
-        <v>96</v>
-      </c>
-      <c r="C25" s="211"/>
-      <c r="D25" s="212" t="s">
-        <v>95</v>
-      </c>
-      <c r="E25" s="213"/>
-      <c r="F25" s="214"/>
-      <c r="G25" s="215"/>
-      <c r="H25" s="215"/>
-      <c r="I25" s="216"/>
+      <c r="B25" s="217" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="218"/>
+      <c r="D25" s="201" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="202"/>
+      <c r="F25" s="203"/>
+      <c r="G25" s="204"/>
+      <c r="H25" s="204"/>
+      <c r="I25" s="205"/>
     </row>
     <row r="26" spans="1:12" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="34"/>
@@ -4750,29 +4660,29 @@
     </row>
     <row r="28" spans="1:12" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="34"/>
-      <c r="B28" s="219" t="s">
-        <v>98</v>
-      </c>
-      <c r="C28" s="219"/>
-      <c r="D28" s="219"/>
-      <c r="E28" s="219"/>
-      <c r="F28" s="219"/>
-      <c r="G28" s="219"/>
-      <c r="H28" s="219"/>
-      <c r="I28" s="219"/>
+      <c r="B28" s="199" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="199"/>
+      <c r="D28" s="199"/>
+      <c r="E28" s="199"/>
+      <c r="F28" s="199"/>
+      <c r="G28" s="199"/>
+      <c r="H28" s="199"/>
+      <c r="I28" s="199"/>
     </row>
     <row r="29" spans="1:12" s="13" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="34"/>
-      <c r="B29" s="220" t="s">
-        <v>99</v>
-      </c>
-      <c r="C29" s="220"/>
-      <c r="D29" s="220"/>
-      <c r="E29" s="220"/>
-      <c r="F29" s="220"/>
-      <c r="G29" s="220"/>
-      <c r="H29" s="220"/>
-      <c r="I29" s="220"/>
+      <c r="B29" s="200" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="200"/>
+      <c r="D29" s="200"/>
+      <c r="E29" s="200"/>
+      <c r="F29" s="200"/>
+      <c r="G29" s="200"/>
+      <c r="H29" s="200"/>
+      <c r="I29" s="200"/>
     </row>
     <row r="30" spans="1:12" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="34"/>
@@ -4871,11 +4781,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F21:I22"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C16:G16"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:I20"/>
     <mergeCell ref="B19:I19"/>
@@ -4884,12 +4794,12 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F21:I22"/>
     <mergeCell ref="B25:C25"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C16:G16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D21" r:id="rId1" xr:uid="{A8760928-B3A3-A942-B7AB-EB5DDC395344}"/>
@@ -4914,8 +4824,8 @@
   </sheetPr>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="96" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="96" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4933,7 +4843,7 @@
     </row>
     <row r="2" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="93"/>
@@ -4963,7 +4873,7 @@
       <c r="B7" s="89"/>
       <c r="C7" s="96"/>
       <c r="D7" s="98" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="99"/>
       <c r="F7" s="100"/>
@@ -4977,43 +4887,43 @@
         <v>2</v>
       </c>
       <c r="C8" s="95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="97" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="97" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="103" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G8" s="102" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="101" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I8" s="104" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="89" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="82"/>
       <c r="B9" s="136" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="91" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E9" s="105" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F9" s="105" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G9" s="106">
         <v>33</v>
@@ -5041,8 +4951,8 @@
       <c r="I10" s="20"/>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="G11" s="223" t="s">
-        <v>105</v>
+      <c r="G11" s="190" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5157,28 +5067,28 @@
         <v>5</v>
       </c>
       <c r="C5" s="152" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="153" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="153" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="153" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="153" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H5" s="153" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I5" s="153" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J5" s="152" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="42.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5855,14 +5765,14 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A2" zoomScale="83" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="C2" sqref="C2"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="I46" sqref="I46"/>
+      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5870,13 +5780,13 @@
     <col min="1" max="1" width="6.5" style="23" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" style="23" customWidth="1"/>
     <col min="3" max="3" width="32.5" customWidth="1"/>
-    <col min="4" max="10" width="32.5" style="23" customWidth="1"/>
-    <col min="11" max="11" width="29.5" style="23" customWidth="1"/>
-    <col min="12" max="12" width="20.6640625" style="23" customWidth="1"/>
-    <col min="13" max="16384" width="14.5" style="23"/>
+    <col min="4" max="8" width="32.5" style="23" customWidth="1"/>
+    <col min="9" max="9" width="29.5" style="23" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" style="23" customWidth="1"/>
+    <col min="11" max="16384" width="14.5" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="B1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -5884,16 +5794,14 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-    </row>
-    <row r="2" spans="1:15" ht="23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" ht="23" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -5901,14 +5809,12 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-    </row>
-    <row r="3" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="B3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -5916,66 +5822,56 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-    </row>
-    <row r="4" spans="1:15" ht="38.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:13" ht="38.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="169" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-    </row>
-    <row r="5" spans="1:15" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:13" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="162" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="161" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="160" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="160" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="160" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="160" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H5" s="160" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I5" s="160" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="J5" s="160" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="160" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="160" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="164"/>
       <c r="B6" s="165"/>
       <c r="C6" s="77"/>
@@ -5984,12 +5880,10 @@
       <c r="F6" s="156"/>
       <c r="G6" s="157"/>
       <c r="H6" s="158"/>
-      <c r="I6" s="170"/>
-      <c r="J6" s="171"/>
-      <c r="K6" s="159"/>
-      <c r="L6" s="69"/>
-    </row>
-    <row r="7" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="I6" s="159"/>
+      <c r="J6" s="69"/>
+    </row>
+    <row r="7" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="B7" s="163"/>
       <c r="C7" s="45"/>
       <c r="D7" s="71"/>
@@ -5998,11 +5892,9 @@
       <c r="G7" s="73"/>
       <c r="H7" s="72"/>
       <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="74"/>
-    </row>
-    <row r="8" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="J7" s="74"/>
+    </row>
+    <row r="8" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="B8" s="28"/>
       <c r="C8" s="20"/>
       <c r="D8" s="40"/>
@@ -6010,12 +5902,10 @@
       <c r="F8" s="29"/>
       <c r="G8" s="70"/>
       <c r="H8" s="28"/>
-      <c r="I8" s="40"/>
+      <c r="I8" s="28"/>
       <c r="J8" s="40"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="40"/>
-    </row>
-    <row r="9" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="B9" s="28"/>
       <c r="C9" s="20"/>
       <c r="D9" s="28"/>
@@ -6024,11 +5914,9 @@
       <c r="G9" s="70"/>
       <c r="H9" s="28"/>
       <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="40"/>
-    </row>
-    <row r="10" spans="1:15" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J9" s="40"/>
+    </row>
+    <row r="10" spans="1:13" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="28"/>
       <c r="C10" s="20"/>
       <c r="D10" s="28"/>
@@ -6037,11 +5925,9 @@
       <c r="G10" s="70"/>
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="40"/>
-    </row>
-    <row r="11" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="J10" s="40"/>
+    </row>
+    <row r="11" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="B11" s="26"/>
       <c r="C11" s="20"/>
       <c r="D11" s="28"/>
@@ -6050,11 +5936,9 @@
       <c r="G11" s="70"/>
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="40"/>
-    </row>
-    <row r="12" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="J11" s="40"/>
+    </row>
+    <row r="12" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="B12" s="28"/>
       <c r="C12" s="20"/>
       <c r="D12" s="28"/>
@@ -6063,11 +5947,9 @@
       <c r="G12" s="70"/>
       <c r="H12" s="28"/>
       <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="40"/>
-    </row>
-    <row r="13" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="J12" s="40"/>
+    </row>
+    <row r="13" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="B13" s="28"/>
       <c r="C13" s="20"/>
       <c r="D13" s="28"/>
@@ -6076,11 +5958,9 @@
       <c r="G13" s="70"/>
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="40"/>
-    </row>
-    <row r="14" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="J13" s="40"/>
+    </row>
+    <row r="14" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="B14" s="28"/>
       <c r="C14" s="20"/>
       <c r="D14" s="40"/>
@@ -6088,12 +5968,10 @@
       <c r="F14" s="29"/>
       <c r="G14" s="70"/>
       <c r="H14" s="28"/>
-      <c r="I14" s="40"/>
+      <c r="I14" s="28"/>
       <c r="J14" s="40"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="40"/>
-    </row>
-    <row r="15" spans="1:15" ht="30.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:13" ht="30.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="28"/>
       <c r="C15" s="20"/>
       <c r="D15" s="40"/>
@@ -6101,12 +5979,10 @@
       <c r="F15" s="29"/>
       <c r="G15" s="70"/>
       <c r="H15" s="28"/>
-      <c r="I15" s="40"/>
+      <c r="I15" s="28"/>
       <c r="J15" s="40"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="40"/>
-    </row>
-    <row r="16" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="B16" s="28"/>
       <c r="C16" s="20"/>
       <c r="D16" s="28"/>
@@ -6115,11 +5991,9 @@
       <c r="G16" s="70"/>
       <c r="H16" s="28"/>
       <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="40"/>
-    </row>
-    <row r="17" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="J16" s="40"/>
+    </row>
+    <row r="17" spans="2:10" ht="13" x14ac:dyDescent="0.15">
       <c r="B17" s="28"/>
       <c r="C17" s="20"/>
       <c r="D17" s="40"/>
@@ -6127,12 +6001,10 @@
       <c r="F17" s="29"/>
       <c r="G17" s="70"/>
       <c r="H17" s="28"/>
-      <c r="I17" s="40"/>
+      <c r="I17" s="28"/>
       <c r="J17" s="40"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="40"/>
-    </row>
-    <row r="18" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="2:10" ht="13" x14ac:dyDescent="0.15">
       <c r="B18" s="29"/>
       <c r="C18" s="20"/>
       <c r="D18" s="40"/>
@@ -6142,10 +6014,8 @@
       <c r="H18" s="28"/>
       <c r="I18" s="40"/>
       <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-    </row>
-    <row r="19" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="2:10" ht="13" x14ac:dyDescent="0.15">
       <c r="B19" s="28"/>
       <c r="C19" s="20"/>
       <c r="D19" s="28"/>
@@ -6154,11 +6024,9 @@
       <c r="G19" s="70"/>
       <c r="H19" s="28"/>
       <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="40"/>
-    </row>
-    <row r="20" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="J19" s="40"/>
+    </row>
+    <row r="20" spans="2:10" ht="13" x14ac:dyDescent="0.15">
       <c r="B20" s="19"/>
       <c r="C20" s="20"/>
       <c r="D20" s="28"/>
@@ -6167,11 +6035,9 @@
       <c r="G20" s="70"/>
       <c r="H20" s="28"/>
       <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="40"/>
-    </row>
-    <row r="21" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="J20" s="40"/>
+    </row>
+    <row r="21" spans="2:10" ht="13" x14ac:dyDescent="0.15">
       <c r="B21" s="28"/>
       <c r="C21" s="20"/>
       <c r="D21" s="28"/>
@@ -6180,11 +6046,9 @@
       <c r="G21" s="70"/>
       <c r="H21" s="28"/>
       <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="40"/>
-    </row>
-    <row r="22" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="J21" s="40"/>
+    </row>
+    <row r="22" spans="2:10" ht="13" x14ac:dyDescent="0.15">
       <c r="B22" s="28"/>
       <c r="C22" s="20"/>
       <c r="D22" s="40"/>
@@ -6192,12 +6056,10 @@
       <c r="F22" s="29"/>
       <c r="G22" s="70"/>
       <c r="H22" s="28"/>
-      <c r="I22" s="40"/>
+      <c r="I22" s="28"/>
       <c r="J22" s="40"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="40"/>
-    </row>
-    <row r="23" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="2:10" ht="13" x14ac:dyDescent="0.15">
       <c r="B23" s="28"/>
       <c r="C23" s="20"/>
       <c r="D23" s="40"/>
@@ -6205,12 +6067,10 @@
       <c r="F23" s="29"/>
       <c r="G23" s="70"/>
       <c r="H23" s="28"/>
-      <c r="I23" s="40"/>
+      <c r="I23" s="28"/>
       <c r="J23" s="40"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="40"/>
-    </row>
-    <row r="24" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="2:10" ht="13" x14ac:dyDescent="0.15">
       <c r="B24" s="28"/>
       <c r="C24" s="20"/>
       <c r="D24" s="40"/>
@@ -6220,10 +6080,8 @@
       <c r="H24" s="28"/>
       <c r="I24" s="40"/>
       <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-    </row>
-    <row r="25" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="2:10" ht="13" x14ac:dyDescent="0.15">
       <c r="B25" s="26"/>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
@@ -6231,12 +6089,10 @@
       <c r="F25" s="20"/>
       <c r="G25" s="20"/>
       <c r="H25" s="26"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="20"/>
-    </row>
-    <row r="26" spans="2:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="I25" s="26"/>
+      <c r="J25" s="20"/>
+    </row>
+    <row r="26" spans="2:10" ht="13" x14ac:dyDescent="0.15">
       <c r="B26" s="26"/>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
@@ -6244,12 +6100,10 @@
       <c r="F26" s="20"/>
       <c r="G26" s="20"/>
       <c r="H26" s="26"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="20"/>
-    </row>
-    <row r="27" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I26" s="26"/>
+      <c r="J26" s="20"/>
+    </row>
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
@@ -6259,8 +6113,6 @@
       <c r="H27" s="20"/>
       <c r="I27" s="20"/>
       <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -6316,7 +6168,7 @@
   <sheetData>
     <row r="2" spans="2:10" ht="25" x14ac:dyDescent="0.25">
       <c r="B2" s="88" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -6326,41 +6178,41 @@
     </row>
     <row r="4" spans="2:10" ht="29.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="229" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="225" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="226"/>
-      <c r="E4" s="226"/>
-      <c r="F4" s="226"/>
-      <c r="G4" s="226"/>
-      <c r="H4" s="226"/>
-      <c r="I4" s="227"/>
+        <v>13</v>
+      </c>
+      <c r="C4" s="226" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="227"/>
+      <c r="E4" s="227"/>
+      <c r="F4" s="227"/>
+      <c r="G4" s="227"/>
+      <c r="H4" s="227"/>
+      <c r="I4" s="228"/>
       <c r="J4" s="20"/>
     </row>
     <row r="5" spans="2:10" s="27" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="230"/>
-      <c r="C5" s="224" t="s">
+      <c r="C5" s="191" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="192" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" s="192" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="228" t="s">
+      <c r="F5" s="192" t="s">
         <v>108</v>
       </c>
-      <c r="E5" s="228" t="s">
+      <c r="G5" s="192" t="s">
         <v>109</v>
       </c>
-      <c r="F5" s="228" t="s">
+      <c r="H5" s="192" t="s">
         <v>110</v>
       </c>
-      <c r="G5" s="228" t="s">
+      <c r="I5" s="192" t="s">
         <v>111</v>
-      </c>
-      <c r="H5" s="228" t="s">
-        <v>112</v>
-      </c>
-      <c r="I5" s="228" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="6" spans="2:10" s="27" customFormat="1" ht="12" x14ac:dyDescent="0.15">
@@ -6460,11 +6312,11 @@
   </sheetPr>
   <dimension ref="B2:AD20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="N5" sqref="N5"/>
+      <selection pane="bottomRight" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6488,7 +6340,7 @@
   <sheetData>
     <row r="2" spans="2:30" ht="23" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K2" s="44"/>
       <c r="L2" s="44"/>
@@ -6544,32 +6396,32 @@
     </row>
     <row r="4" spans="2:30" ht="40.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="231" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="235" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="236"/>
-      <c r="E4" s="236"/>
-      <c r="F4" s="236"/>
-      <c r="G4" s="236"/>
-      <c r="H4" s="236"/>
-      <c r="I4" s="236"/>
-      <c r="J4" s="236"/>
-      <c r="K4" s="236"/>
-      <c r="L4" s="236"/>
-      <c r="M4" s="236"/>
-      <c r="N4" s="236"/>
-      <c r="O4" s="236"/>
-      <c r="P4" s="234"/>
-      <c r="Q4" s="234"/>
-      <c r="R4" s="181"/>
-      <c r="S4" s="181"/>
+        <v>13</v>
+      </c>
+      <c r="C4" s="233" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="234"/>
+      <c r="E4" s="234"/>
+      <c r="F4" s="234"/>
+      <c r="G4" s="234"/>
+      <c r="H4" s="234"/>
+      <c r="I4" s="234"/>
+      <c r="J4" s="234"/>
+      <c r="K4" s="234"/>
+      <c r="L4" s="234"/>
+      <c r="M4" s="234"/>
+      <c r="N4" s="234"/>
+      <c r="O4" s="234"/>
+      <c r="P4" s="194"/>
+      <c r="Q4" s="194"/>
+      <c r="R4" s="235"/>
+      <c r="S4" s="235"/>
       <c r="T4" s="80"/>
       <c r="U4" s="80"/>
       <c r="V4" s="80"/>
-      <c r="W4" s="181"/>
-      <c r="X4" s="181"/>
+      <c r="W4" s="235"/>
+      <c r="X4" s="235"/>
       <c r="Y4" s="80"/>
       <c r="Z4" s="14"/>
       <c r="AA4" s="14"/>
@@ -6579,49 +6431,49 @@
     </row>
     <row r="5" spans="2:30" ht="95" x14ac:dyDescent="0.15">
       <c r="B5" s="232"/>
-      <c r="C5" s="233" t="s">
+      <c r="C5" s="193" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="192" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="193" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="192" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" s="192" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" s="192" t="s">
+        <v>114</v>
+      </c>
+      <c r="I5" s="192" t="s">
+        <v>116</v>
+      </c>
+      <c r="J5" s="193" t="s">
+        <v>115</v>
+      </c>
+      <c r="K5" s="193" t="s">
+        <v>119</v>
+      </c>
+      <c r="L5" s="192" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="228" t="s">
+      <c r="M5" s="192" t="s">
         <v>123</v>
       </c>
-      <c r="E5" s="233" t="s">
-        <v>120</v>
-      </c>
-      <c r="F5" s="228" t="s">
-        <v>119</v>
-      </c>
-      <c r="G5" s="228" t="s">
-        <v>115</v>
-      </c>
-      <c r="H5" s="228" t="s">
-        <v>116</v>
-      </c>
-      <c r="I5" s="228" t="s">
-        <v>118</v>
-      </c>
-      <c r="J5" s="233" t="s">
-        <v>117</v>
-      </c>
-      <c r="K5" s="233" t="s">
-        <v>121</v>
-      </c>
-      <c r="L5" s="228" t="s">
+      <c r="N5" s="193" t="s">
         <v>124</v>
       </c>
-      <c r="M5" s="228" t="s">
+      <c r="O5" s="193" t="s">
         <v>125</v>
-      </c>
-      <c r="N5" s="233" t="s">
-        <v>126</v>
-      </c>
-      <c r="O5" s="233" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="19" spans="10:10" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="10:10" ht="14" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="J20" s="237"/>
+      <c r="J20" s="195"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/09_Literature_Review/00_Literature Review_Blockchain_Implications for Business Models.xlsx
+++ b/09_Literature_Review/00_Literature Review_Blockchain_Implications for Business Models.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dennis/Library/Mobile Documents/3L68KQB4HG~com~readdle~CommonDocuments/Documents/01_Uni/5. Semester/01_Masterarbeit/03_R_Project_MA/09_Literature_Review/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FAF6D2-001A-A44A-932D-685F615F065F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E1F2BF-B996-A840-8BCD-15C61C963D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="I. Design" sheetId="31" r:id="rId1"/>
@@ -4313,7 +4313,7 @@
   </sheetPr>
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A12" zoomScale="111" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="111" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
@@ -4824,8 +4824,8 @@
   </sheetPr>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="96" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="96" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6312,7 +6312,7 @@
   </sheetPr>
   <dimension ref="B2:AD20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
